--- a/02-24-sny son  HESAP.xlsx
+++ b/02-24-sny son  HESAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47207BA-C7FA-4558-AB2C-F881292E0AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353CFC1C-900B-4FD1-A15F-3FCCAE2353B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="765" windowWidth="12825" windowHeight="14835" tabRatio="912" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="16065" windowHeight="14835" tabRatio="912" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="358">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1048,9 +1048,6 @@
     <t>Elektrik 2-</t>
   </si>
   <si>
-    <t>01-01-2024 – 31-12-2024</t>
-  </si>
-  <si>
     <t>30-8-2024-31-12-2024 Bedeli</t>
   </si>
   <si>
@@ -1148,6 +1145,21 @@
   </si>
   <si>
     <t>SnyC</t>
+  </si>
+  <si>
+    <t>Ocak 2024 Bedel</t>
+  </si>
+  <si>
+    <t>01-01-2024 – 31-12-2024 170000</t>
+  </si>
+  <si>
+    <t>Bedel</t>
+  </si>
+  <si>
+    <t>ŞubatOcak 2024 Bedel</t>
+  </si>
+  <si>
+    <t>Ocak 2024 Tüfe Farkı</t>
   </si>
 </sst>
 </file>
@@ -2539,19 +2551,19 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <f>'SnyF601-22'!D4</f>
-        <v>170000</v>
+        <f>'SnyF601-22'!E4</f>
+        <v>171820</v>
       </c>
       <c r="D12" s="3">
-        <f>'SnyF601-22'!E4</f>
+        <f>'SnyF601-22'!F4</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>170000</v>
+        <v>171820</v>
       </c>
       <c r="F12" s="4">
-        <f>'SnyF601-22'!D6</f>
+        <f>'SnyF601-22'!E6</f>
         <v>-2510.63</v>
       </c>
     </row>
@@ -2608,7 +2620,7 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>511000</v>
+        <v>512820</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
@@ -2616,7 +2628,7 @@
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>341000</v>
+        <v>342820</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -2697,7 +2709,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -2717,7 +2729,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -2765,7 +2777,7 @@
         <v>170</v>
       </c>
       <c r="D26" s="3">
-        <f>'SnyF601-22'!E17</f>
+        <f>'SnyF601-22'!F17</f>
         <v>0</v>
       </c>
       <c r="E26" s="4">
@@ -2773,7 +2785,7 @@
         <v>170</v>
       </c>
       <c r="F26" s="4">
-        <f>'SnyF601-22'!D19</f>
+        <f>'SnyF601-22'!E19</f>
         <v>0</v>
       </c>
     </row>
@@ -2855,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2874,18 +2886,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="107" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -2914,7 +2926,7 @@
       <c r="E5" s="116"/>
       <c r="F5" s="116"/>
       <c r="G5" s="137" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H5" s="138">
         <f>D5</f>
@@ -2924,7 +2936,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="109"/>
       <c r="G6" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H6" s="139">
         <f>H23*-1</f>
@@ -2954,7 +2966,7 @@
       </c>
       <c r="F8" s="142"/>
       <c r="G8" s="142" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H8" s="143">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
@@ -3463,7 +3475,7 @@
     <row r="34" spans="1:10">
       <c r="A34" s="152"/>
       <c r="B34" s="153" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C34" s="154">
         <v>24000</v>
@@ -3493,7 +3505,7 @@
         <v>45296</v>
       </c>
       <c r="B35" s="153" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C35" s="154">
         <v>26000</v>
@@ -3523,7 +3535,7 @@
         <v>45295</v>
       </c>
       <c r="B36" s="153" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C36" s="151">
         <v>120000</v>
@@ -3864,7 +3876,7 @@
         <v>45197</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E9" s="28">
         <v>45000</v>
@@ -3877,7 +3889,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
@@ -4025,7 +4037,7 @@
         <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25">
         <v>24.8</v>
@@ -4046,7 +4058,7 @@
         <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26">
         <v>-21.12</v>
@@ -4075,7 +4087,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -4086,7 +4098,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -4984,7 +4996,7 @@
         <v>45291</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4996,7 +5008,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -5008,7 +5020,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
@@ -5023,7 +5035,7 @@
         <v>45295</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
@@ -5058,7 +5070,7 @@
         <v>45295</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D14" s="31">
         <v>-12432</v>
@@ -5074,7 +5086,7 @@
         <v>45295</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32">
@@ -5090,7 +5102,7 @@
         <v>45296</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32">
@@ -5106,7 +5118,7 @@
         <v>45299</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32">
@@ -5409,7 +5421,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
@@ -5417,7 +5429,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -5427,7 +5439,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="130" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C48" s="130"/>
       <c r="D48" s="130">
@@ -5851,7 +5863,7 @@
         <v>45289</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="28"/>
@@ -6260,7 +6272,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="7"/>
       <c r="B45" s="132" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C45" s="131">
         <v>135000</v>
@@ -6945,7 +6957,7 @@
         <v>45167</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="28">
@@ -6959,7 +6971,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="28"/>
@@ -7720,10 +7732,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7731,33 +7743,36 @@
     <col min="1" max="1" width="8.85546875" style="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="1.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="60" width="12.140625" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="61" width="12.140625" customWidth="1"/>
+    <col min="62" max="62" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -7765,236 +7780,285 @@
         <v>24</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="15">
-        <f>SUM(D9:D20)</f>
-        <v>170000</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <f>SUM(E9:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <f>F20</f>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>171820</v>
+      </c>
+      <c r="F4" s="16">
+        <f>SUM(F9:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <f>G20</f>
+        <v>171820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="18">
-        <f>F40</f>
-        <v>0</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="14"/>
+      <c r="E5" s="18">
+        <f>G40</f>
+        <v>0</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="20">
-        <f>F37</f>
+      <c r="D6"/>
+      <c r="E6" s="20">
+        <f>G37</f>
         <v>-2510.63</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="65">
-        <f>E4-D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="65">
+        <f>F4-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
+      <c r="D8"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="66">
+      <c r="D9"/>
+      <c r="E9" s="66">
         <v>170000</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="27">
-        <f>D9-E9</f>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27">
+        <f>E9-F9</f>
         <v>170000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
-      <c r="B10"/>
+      <c r="B10" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="C10"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="27">
-        <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10">
+        <v>14200</v>
+      </c>
+      <c r="E10" s="66">
+        <v>14200</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27">
+        <f t="shared" ref="G10:G20" si="0">E10-F10+G9</f>
+        <v>184200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27">
+      <c r="B11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="66">
+        <f>D10*C11/100</f>
+        <v>710</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>184910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
-      <c r="B12"/>
+      <c r="B12" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="C12"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27">
+      <c r="D12">
+        <f>D10+(D10*C11/100)</f>
+        <v>14910</v>
+      </c>
+      <c r="E12" s="66">
+        <f>D12</f>
+        <v>14910</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27">
+      <c r="D13"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="27">
+      <c r="D14"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="27">
+      <c r="D15"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="30"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="27">
+      <c r="D16"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="30"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="27">
+      <c r="D17"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="30"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="27">
+      <c r="D18"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="67"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="27">
+      <c r="D19"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="27">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>199820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="30"/>
       <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33">
+      <c r="C20">
+        <v>-2</v>
+      </c>
+      <c r="D20">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="66">
+        <f>D20*C20</f>
+        <v>-28000</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33">
         <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>171820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="30"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="D21"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="30"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="D22"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="36" t="s">
         <v>31</v>
       </c>
@@ -8004,218 +8068,232 @@
       <c r="C23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="30"/>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35">
+      <c r="D24"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35">
         <v>-2510.63</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="57"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="57"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="30"/>
       <c r="B25" t="s">
         <v>88</v>
       </c>
       <c r="C25"/>
-      <c r="F25" s="35">
-        <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
+      <c r="D25"/>
+      <c r="G25" s="35">
+        <f t="shared" ref="G25:G36" si="1">E25-F25+G24</f>
         <v>-2510.63</v>
       </c>
-      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="30"/>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26"/>
-      <c r="F26" s="35">
+      <c r="D26"/>
+      <c r="G26" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="30"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27"/>
-      <c r="F27" s="35">
+      <c r="D27"/>
+      <c r="G27" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="30"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28"/>
-      <c r="F28" s="35">
+      <c r="D28"/>
+      <c r="G28" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="L28" s="3"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="30"/>
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29"/>
-      <c r="F29" s="35">
+      <c r="D29"/>
+      <c r="G29" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29" s="3"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="30"/>
       <c r="B30" t="s">
         <v>89</v>
       </c>
       <c r="C30"/>
-      <c r="F30" s="35">
+      <c r="D30"/>
+      <c r="G30" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30" s="3"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="30"/>
       <c r="B31" t="s">
         <v>90</v>
       </c>
       <c r="C31"/>
-      <c r="F31" s="35">
+      <c r="D31"/>
+      <c r="G31" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="L31" s="3"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="30"/>
       <c r="B32" t="s">
         <v>91</v>
       </c>
       <c r="C32"/>
-      <c r="F32" s="35">
+      <c r="D32"/>
+      <c r="G32" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="L32" s="3"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="30"/>
       <c r="B33" t="s">
         <v>92</v>
       </c>
       <c r="C33"/>
-      <c r="F33" s="35">
+      <c r="D33"/>
+      <c r="G33" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="27"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="L33" s="3"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="30"/>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="57"/>
+      <c r="D34"/>
       <c r="E34" s="57"/>
-      <c r="F34" s="35">
+      <c r="F34" s="57"/>
+      <c r="G34" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="L34" s="3"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="30"/>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35">
+      <c r="D35"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="27"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="J35" s="1"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="36"/>
       <c r="B36" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39">
+      <c r="D36" s="23"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39">
         <f t="shared" si="1"/>
         <v>-2510.63</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="27"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="I36" s="1"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="40">
         <v>45291</v>
       </c>
@@ -8226,39 +8304,42 @@
         <f>SUM(C25:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45">
-        <f>D37-E37+F36</f>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45">
+        <f>E37-F37+G36</f>
         <v>-2510.63</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="I37" s="1"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="30"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="34"/>
+      <c r="D38"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="38"/>
-      <c r="H38"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="F38" s="34"/>
+      <c r="G38" s="38"/>
+      <c r="I38"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="7"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="I39" s="3"/>
+      <c r="D39"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="L39" s="3"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="102" t="s">
         <v>254</v>
       </c>
@@ -8266,38 +8347,41 @@
         <v>168</v>
       </c>
       <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49">
-        <f>SUM(E41:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="3"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49">
+        <f>SUM(F41:F41)</f>
+        <v>0</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="L40" s="3"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41"/>
+      <c r="D41" s="8"/>
       <c r="E41"/>
       <c r="F41"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="7">
         <v>45315</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42"/>
+      <c r="D42" s="8"/>
       <c r="E42"/>
       <c r="F42"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="69">
         <v>45236</v>
       </c>
@@ -8305,9 +8389,10 @@
         <v>169</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="68"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="D43"/>
+      <c r="E43" s="68"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="69">
         <v>45236</v>
       </c>
@@ -8315,16 +8400,18 @@
         <v>170</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="68"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="D44"/>
+      <c r="E44" s="68"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="70"/>
       <c r="B45"/>
       <c r="C45" s="71"/>
-      <c r="D45" s="63"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="63"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="F45" s="63"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="69">
         <v>45236</v>
       </c>
@@ -8332,58 +8419,66 @@
         <v>171</v>
       </c>
       <c r="C46"/>
-      <c r="D46" s="68"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="D46"/>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="B47" t="s">
         <v>172</v>
       </c>
       <c r="C47"/>
-      <c r="D47" s="68"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="D47"/>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="B48" t="s">
         <v>173</v>
       </c>
       <c r="C48"/>
-      <c r="D48" s="68"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="D48"/>
+      <c r="E48" s="68"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="B49" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="B50" t="s">
         <v>175</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="B51" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="C52"/>
       <c r="D52"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" t="s">
+      <c r="D53"/>
+      <c r="E53" t="s">
         <v>177</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="69">
         <v>45236</v>
       </c>
@@ -8393,553 +8488,593 @@
       <c r="C54">
         <v>0.65</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54"/>
+      <c r="E54" s="3">
         <v>84000</v>
       </c>
-      <c r="E54" s="3">
-        <f>D54*C54</f>
+      <c r="F54" s="3">
+        <f>E54*C54</f>
         <v>54600</v>
       </c>
-      <c r="F54" s="3">
-        <f>E54+D54</f>
+      <c r="G54" s="3">
+        <f>F54+E54</f>
         <v>138600</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:9" ht="114.75">
+    <row r="57" spans="1:10" ht="114.75">
       <c r="A57" s="69">
         <v>45236</v>
       </c>
       <c r="B57"/>
-      <c r="D57" s="72" t="s">
+      <c r="E57" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="72" t="s">
+      <c r="F57" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="F57" s="72" t="s">
+      <c r="G57" s="72" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="25.5">
+    <row r="58" spans="1:10" ht="25.5">
       <c r="B58" s="72" t="s">
         <v>183</v>
       </c>
       <c r="C58" s="3">
         <v>11.5</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="38.25">
+    <row r="59" spans="1:10" ht="38.25">
       <c r="B59" s="73" t="s">
         <v>184</v>
       </c>
       <c r="C59" s="3">
         <v>12</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>84000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="37.5" customHeight="1">
+    <row r="60" spans="1:10" ht="37.5" customHeight="1">
       <c r="B60" s="72" t="s">
         <v>185</v>
       </c>
       <c r="C60" s="3">
         <v>14</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>98000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="74"/>
       <c r="B61"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="57"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="57"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="F61" s="57"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="B62"/>
       <c r="C62"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="D62"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="B63" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F63" s="3">
-        <f t="shared" ref="F63:F74" si="2">F62+D63-E63</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="G63" s="3">
+        <f t="shared" ref="G63:G74" si="2">G62+E63-F63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="B64" t="s">
         <v>187</v>
       </c>
       <c r="C64"/>
-      <c r="E64" s="3">
+      <c r="D64"/>
+      <c r="F64" s="3">
         <v>20.95</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <f t="shared" si="2"/>
         <v>-20.95</v>
       </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="B65" t="s">
         <v>188</v>
       </c>
       <c r="C65"/>
-      <c r="E65" s="3">
+      <c r="D65"/>
+      <c r="F65" s="3">
         <v>11.93</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <f t="shared" si="2"/>
         <v>-32.879999999999995</v>
       </c>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="74"/>
       <c r="B66" t="s">
         <v>189</v>
       </c>
       <c r="C66"/>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
+      <c r="D66"/>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <f t="shared" si="2"/>
         <v>-32.879999999999995</v>
       </c>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="74"/>
       <c r="B67" t="s">
         <v>190</v>
       </c>
       <c r="C67"/>
-      <c r="E67" s="3">
+      <c r="D67"/>
+      <c r="F67" s="3">
         <v>23.25</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <f t="shared" si="2"/>
         <v>-56.129999999999995</v>
       </c>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="75"/>
       <c r="B68" t="s">
         <v>158</v>
       </c>
       <c r="C68"/>
-      <c r="E68" s="3">
+      <c r="D68"/>
+      <c r="F68" s="3">
         <v>42.14</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <f t="shared" si="2"/>
         <v>-98.27</v>
       </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="B69" t="s">
         <v>159</v>
       </c>
       <c r="C69"/>
-      <c r="E69" s="3">
+      <c r="D69"/>
+      <c r="F69" s="3">
         <v>39.369999999999997</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <f t="shared" si="2"/>
         <v>-137.63999999999999</v>
       </c>
-      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="B70" t="s">
         <v>160</v>
       </c>
       <c r="C70"/>
-      <c r="E70" s="3">
+      <c r="D70"/>
+      <c r="F70" s="3">
         <v>150.16</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <f t="shared" si="2"/>
         <v>-287.79999999999995</v>
       </c>
-      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="B71" t="s">
         <v>161</v>
       </c>
       <c r="C71"/>
-      <c r="E71" s="3">
+      <c r="D71"/>
+      <c r="F71" s="3">
         <v>216.76</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <f t="shared" si="2"/>
         <v>-504.55999999999995</v>
       </c>
-      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="B72" t="s">
         <v>191</v>
       </c>
       <c r="C72"/>
-      <c r="E72" s="3">
+      <c r="D72"/>
+      <c r="F72" s="3">
         <v>132.72</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <f t="shared" si="2"/>
         <v>-637.28</v>
       </c>
-      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73" s="3">
+      <c r="D73"/>
+      <c r="E73" s="3">
         <v>404.76</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="3">
         <f t="shared" si="2"/>
         <v>-232.51999999999998</v>
       </c>
-      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="B74" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="57"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="57"/>
-      <c r="F74" s="57">
+      <c r="F74" s="57"/>
+      <c r="G74" s="57">
         <f t="shared" si="2"/>
         <v>-232.51999999999998</v>
       </c>
-      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="B75"/>
       <c r="C75"/>
-      <c r="I75" s="3"/>
+      <c r="D75"/>
       <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" ht="13.5" thickBot="1">
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" ht="13.5" thickBot="1">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="76"/>
       <c r="B77" s="77" t="s">
         <v>193</v>
       </c>
       <c r="C77" s="78"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="80"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="D77" s="78"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="80"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="76"/>
       <c r="B78" s="81" t="s">
         <v>194</v>
       </c>
       <c r="C78"/>
-      <c r="D78" s="82">
+      <c r="D78"/>
+      <c r="E78" s="82">
         <v>48000</v>
       </c>
-      <c r="E78" s="83">
-        <f>D78</f>
+      <c r="F78" s="83">
+        <f>E78</f>
         <v>48000</v>
       </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="76"/>
       <c r="B79" s="84" t="s">
         <v>195</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="57">
+      <c r="D79" s="1"/>
+      <c r="E79" s="57">
         <v>6920</v>
       </c>
-      <c r="E79" s="85">
-        <f t="shared" ref="E79:E86" si="3">E78-D79</f>
+      <c r="F79" s="85">
+        <f t="shared" ref="F79:F86" si="3">F78-E79</f>
         <v>41080</v>
       </c>
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="B80" s="86" t="s">
         <v>196</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="57">
+      <c r="D80" s="1"/>
+      <c r="E80" s="57">
         <v>13000</v>
       </c>
-      <c r="E80" s="85">
+      <c r="F80" s="85">
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="2:6">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="87" t="s">
         <v>197</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="E81" s="85">
+      <c r="E81"/>
+      <c r="F81" s="85">
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:7">
       <c r="B82" s="87" t="s">
         <v>198</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82" s="85">
+      <c r="E82"/>
+      <c r="F82" s="85">
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="2:6">
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="87" t="s">
         <v>199</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83" s="85">
+      <c r="E83"/>
+      <c r="F83" s="85">
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
-      <c r="F83" s="57"/>
-    </row>
-    <row r="84" spans="2:6">
+      <c r="G83" s="57"/>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" s="88" t="s">
         <v>200</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84" s="85">
+      <c r="E84"/>
+      <c r="F84" s="85">
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
-      <c r="F84" s="57"/>
-    </row>
-    <row r="85" spans="2:6">
+      <c r="G84" s="57"/>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" s="87" t="s">
         <v>201</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85" s="85">
+      <c r="E85"/>
+      <c r="F85" s="85">
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
-      <c r="F85" s="57"/>
-    </row>
-    <row r="86" spans="2:6">
+      <c r="G85" s="57"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="84" t="s">
         <v>202</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="57">
+      <c r="D86" s="1"/>
+      <c r="E86" s="57">
         <v>28080</v>
       </c>
-      <c r="E86" s="85">
+      <c r="F86" s="85">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F86" s="57"/>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="G86" s="57"/>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="57"/>
-    </row>
-    <row r="88" spans="2:6">
+      <c r="E87"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="57"/>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="87"/>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="89"/>
-    </row>
-    <row r="89" spans="2:6">
+      <c r="E88"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="89"/>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="90" t="s">
         <v>203</v>
       </c>
       <c r="C89"/>
-      <c r="D89" s="3">
+      <c r="D89"/>
+      <c r="E89" s="3">
         <v>83000</v>
       </c>
-      <c r="E89" s="85">
+      <c r="F89" s="85">
         <v>83000</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:7">
       <c r="B90" s="87" t="s">
         <v>198</v>
       </c>
       <c r="C90"/>
-      <c r="E90" s="85">
-        <f t="shared" ref="E90:E96" si="4">E89-D90</f>
+      <c r="D90"/>
+      <c r="F90" s="85">
+        <f t="shared" ref="F90:F96" si="4">F89-E90</f>
         <v>83000</v>
       </c>
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="2:6">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="87" t="s">
         <v>199</v>
       </c>
       <c r="C91"/>
-      <c r="E91" s="85">
+      <c r="D91"/>
+      <c r="F91" s="85">
         <f t="shared" si="4"/>
         <v>83000</v>
       </c>
-      <c r="F91" s="57"/>
-    </row>
-    <row r="92" spans="2:6">
+      <c r="G91" s="57"/>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="91" t="s">
         <v>204</v>
       </c>
       <c r="C92"/>
-      <c r="E92" s="85">
+      <c r="D92"/>
+      <c r="F92" s="85">
         <f t="shared" si="4"/>
         <v>83000</v>
       </c>
-      <c r="F92" s="57"/>
-    </row>
-    <row r="93" spans="2:6">
+      <c r="G92" s="57"/>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="92" t="s">
         <v>201</v>
       </c>
       <c r="C93"/>
-      <c r="E93" s="85">
+      <c r="D93"/>
+      <c r="F93" s="85">
         <f t="shared" si="4"/>
         <v>83000</v>
       </c>
-      <c r="F93" s="57"/>
-    </row>
-    <row r="94" spans="2:6">
+      <c r="G93" s="57"/>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="92"/>
       <c r="C94"/>
       <c r="D94"/>
-      <c r="E94" s="85">
+      <c r="E94"/>
+      <c r="F94" s="85">
         <f t="shared" si="4"/>
         <v>83000</v>
       </c>
-      <c r="F94" s="57"/>
-    </row>
-    <row r="95" spans="2:6">
+      <c r="G94" s="57"/>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95" s="93" t="s">
         <v>205</v>
       </c>
       <c r="C95"/>
-      <c r="D95" s="57">
+      <c r="D95"/>
+      <c r="E95" s="57">
         <v>50000</v>
       </c>
-      <c r="E95" s="85">
+      <c r="F95" s="85">
         <f t="shared" si="4"/>
         <v>33000</v>
       </c>
-      <c r="F95" s="57"/>
-    </row>
-    <row r="96" spans="2:6" ht="13.5" thickBot="1">
+      <c r="G95" s="57"/>
+    </row>
+    <row r="96" spans="2:7" ht="13.5" thickBot="1">
       <c r="B96" s="94" t="s">
         <v>206</v>
       </c>
       <c r="C96" s="95"/>
       <c r="D96" s="95"/>
-      <c r="E96" s="96">
+      <c r="E96" s="95"/>
+      <c r="F96" s="96">
         <f t="shared" si="4"/>
         <v>33000</v>
       </c>
-      <c r="F96" s="57"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="57"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="B97" s="26"/>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="F97" s="57"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="E97"/>
+      <c r="G97" s="57"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="B98" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E98" s="57"/>
       <c r="F98" s="57"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="57"/>
+    </row>
+    <row r="99" spans="1:7">
       <c r="B99" t="s">
         <v>208</v>
       </c>
       <c r="C99"/>
-      <c r="D99" s="3">
+      <c r="D99"/>
+      <c r="E99" s="3">
         <v>1252.54</v>
       </c>
-      <c r="F99" s="57"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="57"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="B100" t="s">
         <v>209</v>
       </c>
       <c r="C100"/>
-      <c r="D100" s="3">
+      <c r="D100"/>
+      <c r="E100" s="3">
         <v>375</v>
       </c>
-      <c r="F100" s="57"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="57"/>
+    </row>
+    <row r="101" spans="1:7">
       <c r="B101" t="s">
         <v>210</v>
       </c>
       <c r="C101"/>
-      <c r="D101" s="3">
+      <c r="D101"/>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="57"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="57"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="69">
         <v>45015</v>
       </c>
@@ -8947,82 +9082,91 @@
         <v>211</v>
       </c>
       <c r="C102"/>
-      <c r="D102" s="3">
+      <c r="D102"/>
+      <c r="E102" s="3">
         <v>1447</v>
       </c>
-      <c r="F102" s="57"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="57"/>
+    </row>
+    <row r="103" spans="1:7">
       <c r="B103" t="s">
         <v>212</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="E103" s="57">
+      <c r="D103" s="1"/>
+      <c r="F103" s="57">
         <v>4574.54</v>
       </c>
-      <c r="F103" s="57"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="57"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="F104" s="57"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="E104"/>
+      <c r="G104" s="57"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="1"/>
+      <c r="E106" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:7">
       <c r="B107" t="s">
         <v>215</v>
       </c>
       <c r="C107"/>
-      <c r="D107" s="3">
+      <c r="D107"/>
+      <c r="E107" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:7">
       <c r="B108" t="s">
         <v>216</v>
       </c>
       <c r="C108"/>
-      <c r="E108" s="57">
+      <c r="D108"/>
+      <c r="F108" s="57">
         <v>28000</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:7">
       <c r="A109" s="76"/>
       <c r="B109" t="s">
         <v>217</v>
       </c>
       <c r="C109"/>
-      <c r="E109" s="57">
+      <c r="D109"/>
+      <c r="F109" s="57">
         <v>4000</v>
       </c>
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="76"/>
       <c r="B110" t="s">
         <v>218</v>
       </c>
       <c r="C110"/>
-      <c r="E110" s="57">
+      <c r="D110"/>
+      <c r="F110" s="57">
         <v>4000</v>
       </c>
-      <c r="F110"/>
+      <c r="G110"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
@@ -9519,7 +9663,7 @@
         <v>45194</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>

--- a/02-24-sny son  HESAP.xlsx
+++ b/02-24-sny son  HESAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353CFC1C-900B-4FD1-A15F-3FCCAE2353B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6422C684-A047-405C-AED7-E0D87EA7C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="16065" windowHeight="14835" tabRatio="912" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Sayfa1" sheetId="15" r:id="rId7"/>
     <sheet name="SnyG702-22" sheetId="7" r:id="rId8"/>
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId9"/>
-    <sheet name="Sayfa2" sheetId="16" r:id="rId10"/>
+    <sheet name="NAZAN" sheetId="16" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="357">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -895,21 +895,12 @@
     <t>kepçenin bozduğu 10 adet trapez sac</t>
   </si>
   <si>
-    <t>( 2400 TL )</t>
-  </si>
-  <si>
-    <t>( 800 TL )</t>
-  </si>
-  <si>
     <t>( 0 TL )</t>
   </si>
   <si>
     <t>( 1200 TL )</t>
   </si>
   <si>
-    <t>( 3600 TL )</t>
-  </si>
-  <si>
     <t>01-01-23 - 31-12-23 kira bedeli 2022 yılında  Ödendi</t>
   </si>
   <si>
@@ -1160,6 +1151,12 @@
   </si>
   <si>
     <t>Ocak 2024 Tüfe Farkı</t>
+  </si>
+  <si>
+    <t>( 1000 TL )</t>
+  </si>
+  <si>
+    <t>( 3100 TL )</t>
   </si>
 </sst>
 </file>
@@ -2407,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2492,7 +2489,7 @@
       </c>
       <c r="F9" s="4">
         <f>'SnyB202-22'!D6</f>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2540,7 +2537,7 @@
       </c>
       <c r="F11" s="4">
         <f>'SnyE502-22'!D6</f>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2564,7 +2561,7 @@
       </c>
       <c r="F12" s="4">
         <f>'SnyF601-22'!E6</f>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2600,11 +2597,11 @@
       </c>
       <c r="C14" s="4">
         <f>SnH_yazıhane!F2*-1</f>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
       <c r="D14" s="4">
         <f>C14</f>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
       <c r="E14" s="4">
         <f>C14-D14</f>
@@ -2620,11 +2617,11 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>512820</v>
+        <v>512742.91</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
-        <v>170000</v>
+        <v>169922.91</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
@@ -2632,7 +2629,7 @@
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
-        <v>-9434.86</v>
+        <v>-9693.39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2709,7 +2706,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -2867,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2886,18 +2883,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="107" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -2926,7 +2923,7 @@
       <c r="E5" s="116"/>
       <c r="F5" s="116"/>
       <c r="G5" s="137" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H5" s="138">
         <f>D5</f>
@@ -2936,7 +2933,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="109"/>
       <c r="G6" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H6" s="139">
         <f>H23*-1</f>
@@ -2966,7 +2963,7 @@
       </c>
       <c r="F8" s="142"/>
       <c r="G8" s="142" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H8" s="143">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
@@ -2984,9 +2981,16 @@
         <f t="shared" ref="D9:D19" si="1">D8-C9</f>
         <v>141014.76</v>
       </c>
+      <c r="E9" s="141">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142" t="s">
+        <v>344</v>
+      </c>
       <c r="H9" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3002,7 +3006,7 @@
       </c>
       <c r="H10" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3018,7 +3022,7 @@
       </c>
       <c r="H11" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3034,7 +3038,7 @@
       </c>
       <c r="H12" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3050,7 +3054,7 @@
       </c>
       <c r="H13" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3066,7 +3070,7 @@
       </c>
       <c r="H14" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3082,7 +3086,7 @@
       </c>
       <c r="H15" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3098,7 +3102,7 @@
       </c>
       <c r="H16" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3114,7 +3118,7 @@
       </c>
       <c r="H17" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3130,7 +3134,7 @@
       </c>
       <c r="H18" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3146,7 +3150,7 @@
       </c>
       <c r="H19" s="104">
         <f t="shared" si="0"/>
-        <v>151014.76</v>
+        <v>141014.76</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3157,7 +3161,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="B21" s="110" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D21" s="144">
         <v>0.76480000000000004</v>
@@ -3176,19 +3180,19 @@
         <v>24</v>
       </c>
       <c r="C22" s="145" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="146" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="145" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="147" t="s">
         <v>293</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="G22" s="145" t="s">
         <v>294</v>
-      </c>
-      <c r="E22" s="145" t="s">
-        <v>295</v>
-      </c>
-      <c r="F22" s="147" t="s">
-        <v>296</v>
-      </c>
-      <c r="G22" s="145" t="s">
-        <v>297</v>
       </c>
       <c r="H22" s="148" t="s">
         <v>248</v>
@@ -3197,7 +3201,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="133"/>
       <c r="B23" s="134" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C23" s="135">
         <f>SUBTOTAL(109,C24:C37)</f>
@@ -3227,7 +3231,7 @@
         <v>45656</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D24" s="114">
         <f t="shared" ref="D24:D37" si="2">IF(F24=1,$D24,0)</f>
@@ -3447,7 +3451,7 @@
         <v>45321</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C33" s="119">
         <v>7000</v>
@@ -3475,7 +3479,7 @@
     <row r="34" spans="1:10">
       <c r="A34" s="152"/>
       <c r="B34" s="153" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C34" s="154">
         <v>24000</v>
@@ -3505,7 +3509,7 @@
         <v>45296</v>
       </c>
       <c r="B35" s="153" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C35" s="154">
         <v>26000</v>
@@ -3535,7 +3539,7 @@
         <v>45295</v>
       </c>
       <c r="B36" s="153" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C36" s="151">
         <v>120000</v>
@@ -3602,10 +3606,10 @@
         <v>252</v>
       </c>
       <c r="D40" s="109" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E40" s="109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G40" s="121"/>
       <c r="H40" s="121"/>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="B42" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C42" s="124">
         <f>$D$23*C41</f>
@@ -3668,7 +3672,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="B44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C44" s="114">
         <f>C42-C43</f>
@@ -3700,13 +3704,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="C47" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G47" s="109"/>
       <c r="H47" s="109"/>
@@ -3876,7 +3880,7 @@
         <v>45197</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E9" s="28">
         <v>45000</v>
@@ -3889,7 +3893,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
@@ -4013,7 +4017,7 @@
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4034,10 +4038,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C25">
         <v>24.8</v>
@@ -4055,10 +4059,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C26">
         <v>-21.12</v>
@@ -4076,7 +4080,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -4087,7 +4091,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -4098,7 +4102,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -4109,7 +4113,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -4120,7 +4124,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -4131,7 +4135,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -4866,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4959,7 +4963,7 @@
       </c>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -4996,7 +5000,7 @@
         <v>45291</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5008,7 +5012,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -5020,7 +5024,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
@@ -5035,7 +5039,7 @@
         <v>45295</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
@@ -5070,7 +5074,7 @@
         <v>45295</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D14" s="31">
         <v>-12432</v>
@@ -5086,7 +5090,7 @@
         <v>45295</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32">
@@ -5102,7 +5106,7 @@
         <v>45296</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32">
@@ -5118,7 +5122,7 @@
         <v>45299</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32">
@@ -5182,8 +5186,8 @@
         <v>34</v>
       </c>
       <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>272</v>
+      <c r="F23" s="38">
+        <v>1600</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5202,11 +5206,18 @@
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35">
+        <v>900.36</v>
+      </c>
+      <c r="E25" s="35">
+        <v>999.4</v>
+      </c>
       <c r="F25" s="35">
         <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -5219,7 +5230,7 @@
       <c r="E26" s="35"/>
       <c r="F26" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -5232,7 +5243,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -5245,7 +5256,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -5258,7 +5269,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -5271,7 +5282,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -5284,7 +5295,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -5297,7 +5308,7 @@
       <c r="E32" s="35"/>
       <c r="F32" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -5310,7 +5321,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -5323,7 +5334,7 @@
       <c r="E34" s="35"/>
       <c r="F34" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -5336,7 +5347,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -5350,7 +5361,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -5369,7 +5380,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="45">
         <f>D37-E37+F36</f>
-        <v>-1000.12</v>
+        <v>-1099.1599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5377,7 +5388,7 @@
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5421,7 +5432,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
@@ -5429,7 +5440,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -5439,7 +5450,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="130" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C48" s="130"/>
       <c r="D48" s="130">
@@ -5478,7 +5489,7 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="48">
@@ -5741,8 +5752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5863,7 +5874,7 @@
         <v>45289</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="28"/>
@@ -6024,8 +6035,8 @@
         <v>34</v>
       </c>
       <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>273</v>
+      <c r="F23" s="38">
+        <v>3000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6045,8 +6056,15 @@
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25"/>
-      <c r="E25"/>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>875.64</v>
+      </c>
+      <c r="E25">
+        <v>875.64</v>
+      </c>
       <c r="F25" s="35">
         <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
         <v>-3924.11</v>
@@ -6272,7 +6290,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="7"/>
       <c r="B45" s="132" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C45" s="131">
         <v>135000</v>
@@ -6840,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6925,7 +6943,7 @@
       <c r="C6"/>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -6957,7 +6975,7 @@
         <v>45167</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="28">
@@ -6971,7 +6989,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="28"/>
@@ -7126,7 +7144,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7146,12 +7164,18 @@
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35">
+        <v>381.33</v>
+      </c>
+      <c r="E25" s="35">
+        <v>431.36</v>
+      </c>
       <c r="F25" s="35">
         <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7164,7 +7188,7 @@
       <c r="E26" s="35"/>
       <c r="F26" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7177,7 +7201,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7190,7 +7214,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7203,7 +7227,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7216,7 +7240,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7229,7 +7253,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7242,7 +7266,7 @@
       <c r="E32" s="35"/>
       <c r="F32" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7255,7 +7279,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7268,7 +7292,7 @@
       <c r="E34" s="35"/>
       <c r="F34" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7281,7 +7305,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7294,7 +7318,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7312,7 +7336,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="45">
         <f>D37-E37+F36</f>
-        <v>-800</v>
+        <v>-850.03</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7734,8 +7758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7781,7 +7805,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -7835,7 +7859,7 @@
       <c r="D6"/>
       <c r="E6" s="20">
         <f>G37</f>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="21"/>
@@ -7868,7 +7892,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -7884,7 +7908,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C10"/>
       <c r="D10">
@@ -7902,7 +7926,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
@@ -7920,7 +7944,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C12"/>
       <c r="D12">
@@ -8074,7 +8098,7 @@
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8100,11 +8124,19 @@
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25"/>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25"/>
+      <c r="E25" s="3">
+        <v>781.86</v>
+      </c>
+      <c r="F25" s="3">
+        <v>891.32</v>
+      </c>
       <c r="G25" s="35">
         <f t="shared" ref="G25:G36" si="1">E25-F25+G24</f>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -8119,7 +8151,7 @@
       <c r="D26"/>
       <c r="G26" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
@@ -8135,7 +8167,7 @@
       <c r="D27"/>
       <c r="G27" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
@@ -8151,7 +8183,7 @@
       <c r="D28"/>
       <c r="G28" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="3"/>
@@ -8167,7 +8199,7 @@
       <c r="D29"/>
       <c r="G29" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
@@ -8183,7 +8215,7 @@
       <c r="D30"/>
       <c r="G30" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
@@ -8199,7 +8231,7 @@
       <c r="D31"/>
       <c r="G31" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="3"/>
@@ -8215,7 +8247,7 @@
       <c r="D32"/>
       <c r="G32" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="3"/>
@@ -8231,7 +8263,7 @@
       <c r="D33"/>
       <c r="G33" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="3"/>
@@ -8249,7 +8281,7 @@
       <c r="F34" s="57"/>
       <c r="G34" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="3"/>
@@ -8267,7 +8299,7 @@
       <c r="F35" s="35"/>
       <c r="G35" s="35">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -8286,7 +8318,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="39">
         <f t="shared" si="1"/>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="I36" s="1"/>
       <c r="K36" s="68"/>
@@ -8309,7 +8341,7 @@
       <c r="F37" s="44"/>
       <c r="G37" s="45">
         <f>E37-F37+G36</f>
-        <v>-2510.63</v>
+        <v>-2620.09</v>
       </c>
       <c r="I37" s="1"/>
       <c r="K37" s="68"/>
@@ -8373,7 +8405,7 @@
         <v>45315</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -9195,12 +9227,12 @@
   <sheetData>
     <row r="4" spans="2:9">
       <c r="C4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="C5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E5" s="3">
         <v>36000</v>
@@ -9216,7 +9248,7 @@
         <v>44651</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6">
@@ -9232,7 +9264,7 @@
         <v>44681</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7">
@@ -9248,7 +9280,7 @@
         <v>44711</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8">
@@ -9264,7 +9296,7 @@
         <v>44742</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3">
@@ -9277,7 +9309,7 @@
         <v>44772</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3">
@@ -9290,7 +9322,7 @@
         <v>44803</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3">
@@ -9306,7 +9338,7 @@
         <v>44957</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D13">
         <v>6.65</v>
@@ -9324,7 +9356,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="C14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D14">
         <v>3.15</v>
@@ -9341,7 +9373,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="C15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D15">
         <v>2.29</v>
@@ -9358,7 +9390,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="C16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D16">
         <v>2.39</v>
@@ -9377,7 +9409,7 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D17">
         <v>5.32</v>
@@ -9396,7 +9428,7 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D18">
         <v>3.92</v>
@@ -9413,7 +9445,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D19">
         <v>9.49</v>
@@ -9432,7 +9464,7 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D20">
         <v>9.09</v>
@@ -9449,7 +9481,7 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D21">
         <v>5.37</v>
@@ -9527,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="B9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9663,7 +9695,7 @@
         <v>45194</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -9797,7 +9829,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9816,8 +9848,15 @@
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35">
+        <v>483.72</v>
+      </c>
+      <c r="E25" s="35">
+        <v>483.72</v>
+      </c>
       <c r="F25" s="35">
         <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
         <v>-1200</v>
@@ -10314,8 +10353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10339,18 +10378,18 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>243</v>
       </c>
       <c r="F2" s="57">
         <f>SUM(F6:F55)</f>
-        <v>0</v>
+        <v>77.09</v>
       </c>
       <c r="G2" s="57">
         <f>F2</f>
-        <v>0</v>
+        <v>77.09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10385,13 +10424,16 @@
         <v>44956</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
+      <c r="F6" s="3">
+        <v>77.09</v>
+      </c>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G22" si="0">G5+E6-F6</f>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10399,13 +10441,13 @@
         <v>44985</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10413,13 +10455,13 @@
         <v>45015</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -10427,13 +10469,13 @@
         <v>45046</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -10441,13 +10483,13 @@
         <v>45076</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -10461,7 +10503,7 @@
       <c r="D11"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10475,7 +10517,7 @@
       <c r="D12"/>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10483,13 +10525,13 @@
         <v>45107</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -10497,13 +10539,13 @@
         <v>45137</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10511,13 +10553,13 @@
         <v>45168</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10525,13 +10567,13 @@
         <v>45199</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10539,13 +10581,13 @@
         <v>45229</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10559,7 +10601,7 @@
       <c r="D18"/>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10573,7 +10615,7 @@
       <c r="D19"/>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10581,13 +10623,13 @@
         <v>45260</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10595,12 +10637,12 @@
         <v>45290</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C21"/>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10610,10 +10652,12 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-77.09</v>
       </c>
     </row>
     <row r="23" spans="1:7">

--- a/02-24-sny son  HESAP.xlsx
+++ b/02-24-sny son  HESAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6422C684-A047-405C-AED7-E0D87EA7C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BEB472-277D-4E71-8990-94A0EEAD6227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12855" yWindow="840" windowWidth="15420" windowHeight="14550" tabRatio="912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="358">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1157,6 +1157,9 @@
   </si>
   <si>
     <t>( 3100 TL )</t>
+  </si>
+  <si>
+    <t>ortak hesaptan ödeme 18-03-24</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3757,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4081,6 +4084,15 @@
     <row r="27" spans="1:7">
       <c r="A27" s="30" t="s">
         <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27">
+        <v>-52.17</v>
+      </c>
+      <c r="D27">
+        <v>2231.5</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
